--- a/biology/Histoire de la zoologie et de la botanique/Józef_Paczoski/Józef_Paczoski.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Józef_Paczoski/Józef_Paczoski.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>J%C3%B3zef_Paczoski</t>
+          <t>Józef_Paczoski</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Józef Konrad Paczoski armoiries Jastrzębiec (API : [ˈjʊzɛf pəˈtʃɒski] ; ukrainien : Йосип Пачоський, Ïossyp Patchoskyï) (1864-1942) est un éminent botaniste polonais à l'origine du terme « phytosociologie » et l'un des fondateurs de cette branche de la botanique.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>J%C3%B3zef_Paczoski</t>
+          <t>Józef_Paczoski</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Józef Paczoski est le fils de Konrad Paczoski (1833-1875), avocat et administrateur des biens du prince Sanguszko ayant participé à l'insurrection de Janvier, et de Ludwika Wiemuth (née en 1843), fille du docteur Ludwik (von) Wiemuth (1810-1876), poète, espion et membre de la Garde d'honneur. Il est le beau-frère du docteur Jan Harusewicz et du général Antoni Aleksander Iliński.
 Józef Paczoski étudie à l'Université jagellonne et à l'Université de Kiev sous la tutelle du zoologiste russe Ivan Ivanovitch Schmalhausen (en). Il invente en 1896 le terme de « phytosociologie » pour désigner l'étude des communautés naturelles végétales. Il devient par la suite scientifique en chef de la réserve de la forêt de Bialovèse en 1923. Il y effectue de nombreux travaux de recherche.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>J%C3%B3zef_Paczoski</t>
+          <t>Józef_Paczoski</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Espèces de plantes nommées d'après Józef Paczoski</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Allium paczoskianum
 Centaurea paczoskyi
